--- a/files/MyST_LAB2_MarcoOchoac.xlsx
+++ b/files/MyST_LAB2_MarcoOchoac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoochoa/Downloads/MICROESTRUCTURAS DE TRADING/MyST_LAB_3_E3/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4081ED-7B4B-3743-9492-005B21CA96A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE6039-857D-5D46-9A4C-187BDB4577E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{AE1A67D9-E2E3-A743-8418-DF9730B11B53}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="15760" xr2:uid="{AE1A67D9-E2E3-A743-8418-DF9730B11B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico MT5" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>S / L</t>
   </si>
@@ -203,9 +203,6 @@
     <t>2022.09.26 18:45:28</t>
   </si>
   <si>
-    <t>-2 001.12</t>
-  </si>
-  <si>
     <t>2022.09.21 21:06:17</t>
   </si>
   <si>
@@ -290,16 +287,10 @@
     <t>2022.09.26 18:45:05</t>
   </si>
   <si>
-    <t>-1 143.00</t>
-  </si>
-  <si>
     <t>2022.09.26 17:50:05</t>
   </si>
   <si>
     <t>2022.09.26 18:25:59</t>
-  </si>
-  <si>
-    <t>-2 040.60</t>
   </si>
   <si>
     <t>2022.09.26 18:27:04</t>
@@ -730,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E313A68-729B-5A42-979F-95450EEFF47D}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -754,22 +745,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
@@ -778,22 +769,22 @@
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1713,8 +1704,8 @@
       <c r="L22" s="1">
         <v>12.84</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>55</v>
+      <c r="M22" s="1">
+        <v>-2001.12</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
@@ -1722,13 +1713,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
         <v>78416781</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -1746,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1">
         <v>1.3401700000000001</v>
@@ -1766,7 +1757,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>78416998</v>
@@ -1790,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1">
         <v>3866.86</v>
@@ -1810,7 +1801,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1">
         <v>78420765</v>
@@ -1834,7 +1825,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1">
         <v>1.0634699999999999</v>
@@ -1846,7 +1837,7 @@
         <v>-8.8800000000000008</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25" s="4">
         <v>100000</v>
@@ -1854,13 +1845,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>78420870</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -1878,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1">
         <v>12016.4</v>
@@ -1890,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -1898,7 +1889,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
         <v>78468480</v>
@@ -1922,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" s="1">
         <v>1683.44</v>
@@ -1942,7 +1933,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1">
         <v>78468503</v>
@@ -1966,7 +1957,7 @@
         <v>1690</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1">
         <v>1640</v>
@@ -1978,7 +1969,7 @@
         <v>-20.45</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N28" s="4">
         <v>100</v>
@@ -1986,7 +1977,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>78517120</v>
@@ -2010,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1">
         <v>3665.21</v>
@@ -2022,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -2030,13 +2021,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>78518675</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -2054,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1">
         <v>10.29</v>
@@ -2074,13 +2065,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
         <v>78518704</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2098,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1">
         <v>275.41000000000003</v>
@@ -2118,7 +2109,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1">
         <v>78582128</v>
@@ -2142,7 +2133,7 @@
         <v>3750</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="1">
         <v>3669.91</v>
@@ -2153,8 +2144,8 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>84</v>
+      <c r="M32" s="1">
+        <v>-1143</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
@@ -2162,13 +2153,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1">
         <v>78582853</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -2186,7 +2177,7 @@
         <v>11500</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="1">
         <v>11319.85</v>
@@ -2197,8 +2188,8 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>87</v>
+      <c r="M33" s="1">
+        <v>-2040.6</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
@@ -2206,13 +2197,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1">
         <v>78585019</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J34" s="1">
         <v>11295.65</v>
